--- a/Configs/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Configs/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Map3</t>
+  </si>
+  <si>
+    <t>LiveOps</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -136,7 +139,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,12 +160,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -619,52 +616,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,79 +670,79 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -762,8 +759,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1117,24 +1114,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1296296296296" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.6296296296296" style="6" customWidth="1"/>
-    <col min="3" max="4" width="12.6296296296296" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.6296296296296" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.3796296296296" style="7" customWidth="1"/>
-    <col min="7" max="8" width="13.1296296296296" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21.1333333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.6333333333333" style="6" customWidth="1"/>
+    <col min="3" max="4" width="12.6333333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.6333333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.3833333333333" style="7" customWidth="1"/>
+    <col min="7" max="8" width="13.1333333333333" style="7" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.4" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1155,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14.4" spans="1:8">
+    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1179,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.4" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1236,10 +1233,10 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="5">
@@ -1256,10 +1253,10 @@
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="5">
@@ -1276,10 +1273,10 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="5"/>
@@ -1294,10 +1291,10 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="5"/>
@@ -1312,10 +1309,10 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="5"/>
@@ -1330,10 +1327,10 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="5"/>
@@ -1348,11 +1345,31 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="8">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7">
+        <v>30005</v>
       </c>
     </row>
   </sheetData>
@@ -1371,11 +1388,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="7.12962962962963" customWidth="1"/>
-    <col min="5" max="6" width="13.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="7.13333333333333" customWidth="1"/>
+    <col min="5" max="6" width="13.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1450,7 +1467,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" ht="14.25" spans="2:7">
       <c r="B4" s="5">
         <v>300</v>
       </c>
@@ -1461,16 +1478,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" ht="14.25" spans="2:7">
       <c r="B5" s="5">
         <v>301</v>
       </c>
@@ -1481,16 +1498,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" ht="14.25" spans="2:7">
       <c r="B6" s="5">
         <v>302</v>
       </c>
@@ -1501,16 +1518,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" ht="14.25" spans="2:7">
       <c r="B7" s="5">
         <v>303</v>
       </c>
@@ -1521,16 +1538,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" ht="14.25" spans="2:7">
       <c r="B8" s="5">
         <v>304</v>
       </c>
@@ -1541,10 +1558,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>
